--- a/src/product.xlsx
+++ b/src/product.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\123\IdeaProjects\cmdShop\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79ED3F27-6BCB-4ABC-9F1F-9202F5A5E695}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2E19C58-D727-4E2B-A655-B0C7C470C877}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5550" yWindow="2715" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,6 +22,27 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>固态硬盘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -62,8 +83,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -347,31 +369,34 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1">
-        <v>123</v>
-      </c>
-      <c r="B1">
-        <v>123</v>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
       </c>
       <c r="C1">
-        <v>123</v>
+        <v>799</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>123</v>
-      </c>
-      <c r="B2">
-        <v>123</v>
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>123</v>
+        <v>6888</v>
       </c>
     </row>
   </sheetData>
